--- a/test-resources/Data/TEST_CHUCNANG.xlsx
+++ b/test-resources/Data/TEST_CHUCNANG.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="49">
   <si>
     <t>Error: Error while committing the transaction</t>
   </si>
@@ -157,6 +157,72 @@
   </si>
   <si>
     <t>Pass</t>
+  </si>
+  <si>
+    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//*[@id="authenticate_form_username"]"}
+  (Session info: chrome=119.0.6045.124)
+For documentation on this error, please visit: https://www.selenium.dev/documentation/webdriver/troubleshooting/errors#no-such-element-exception
+Build info: version: '4.10.0', revision: 'c14d967899'
+System info: os.name: 'Windows 11', os.arch: 'amd64', os.version: '10.0', java.version: '17.0.7'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Command: [38a67ab9d9fdc42f3f2a3fe0ae01cf18, findElement {using=xpath, value=//*[@id="authenticate_form_username"]}]
+Capabilities {acceptInsecureCerts: false, browserName: chrome, browserVersion: 119.0.6045.124, chrome: {chromedriverVersion: 119.0.6045.105 (38c72552c5e..., userDataDir: C:\Users\trung\AppData\Loca...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:57237}, networkConnectionEnabled: false, pageLoadStrategy: normal, platformName: windows, proxy: Proxy(), se:cdp: ws://localhost:57237/devtoo..., se:cdpVersion: 119.0.6045.124, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
+Session ID: 38a67ab9d9fdc42f3f2a3fe0ae01cf18</t>
+  </si>
+  <si>
+    <t>no such element: Unable to locate element: {"method":"xpath","selector":"/html/body/main/div/section/div"}
+  (Session info: chrome=119.0.6045.124)
+For documentation on this error, please visit: https://www.selenium.dev/documentation/webdriver/troubleshooting/errors#no-such-element-exception
+Build info: version: '4.10.0', revision: 'c14d967899'
+System info: os.name: 'Windows 11', os.arch: 'amd64', os.version: '10.0', java.version: '17.0.7'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Command: [26717694bd83c6ab633422d43e601976, findElement {using=xpath, value=/html/body/main/div/section/div}]
+Capabilities {acceptInsecureCerts: false, browserName: chrome, browserVersion: 119.0.6045.124, chrome: {chromedriverVersion: 119.0.6045.105 (38c72552c5e..., userDataDir: C:\Users\trung\AppData\Loca...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:57272}, networkConnectionEnabled: false, pageLoadStrategy: normal, platformName: windows, proxy: Proxy(), se:cdp: ws://localhost:57272/devtoo..., se:cdpVersion: 119.0.6045.124, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
+Session ID: 26717694bd83c6ab633422d43e601976</t>
+  </si>
+  <si>
+    <t>element click intercepted: Element &lt;button tabindex="3" type="submit" class="btn-main mx-auto btn-main mx-auto-default" ant-click-animating-without-extra-node="false"&gt;...&lt;/button&gt; is not clickable at point (514, 502). Other element would receive the click: &lt;div class="ant-spin ant-spin-spinning" aria-live="polite" aria-busy="true"&gt;...&lt;/div&gt;
+  (Session info: chrome=119.0.6045.124)
+Build info: version: '4.10.0', revision: 'c14d967899'
+System info: os.name: 'Windows 11', os.arch: 'amd64', os.version: '10.0', java.version: '17.0.7'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Command: [7803fdadead19ffdcba4ab7c93c59221, clickElement {id=293C29D8F16AD94CB6BCAEC07FAFD9E3_element_15}]
+Capabilities {acceptInsecureCerts: false, browserName: chrome, browserVersion: 119.0.6045.124, chrome: {chromedriverVersion: 119.0.6045.105 (38c72552c5e..., userDataDir: C:\Users\trung\AppData\Loca...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:57406}, networkConnectionEnabled: false, pageLoadStrategy: normal, platformName: windows, proxy: Proxy(), se:cdp: ws://localhost:57406/devtoo..., se:cdpVersion: 119.0.6045.124, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
+Element: [[ChromeDriver: chrome on windows (7803fdadead19ffdcba4ab7c93c59221)] -&gt; xpath: //*[@id="authenticate_form"]/div[2]/div/button]
+Session ID: 7803fdadead19ffdcba4ab7c93c59221</t>
+  </si>
+  <si>
+    <t>element click intercepted: Element &lt;button tabindex="3" type="submit" class="btn-main mx-auto btn-main mx-auto-default" ant-click-animating-without-extra-node="false"&gt;...&lt;/button&gt; is not clickable at point (514, 502). Other element would receive the click: &lt;div class="ant-spin ant-spin-spinning" aria-live="polite" aria-busy="true"&gt;...&lt;/div&gt;
+  (Session info: chrome=119.0.6045.124)
+Build info: version: '4.10.0', revision: 'c14d967899'
+System info: os.name: 'Windows 11', os.arch: 'amd64', os.version: '10.0', java.version: '17.0.7'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Command: [e9edce95ff33a7ce76d05590e41a0055, clickElement {id=6A62461EAC98EE71F2BE27987211B00A_element_15}]
+Capabilities {acceptInsecureCerts: false, browserName: chrome, browserVersion: 119.0.6045.124, chrome: {chromedriverVersion: 119.0.6045.105 (38c72552c5e..., userDataDir: C:\Users\trung\AppData\Loca...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:57483}, networkConnectionEnabled: false, pageLoadStrategy: normal, platformName: windows, proxy: Proxy(), se:cdp: ws://localhost:57483/devtoo..., se:cdpVersion: 119.0.6045.124, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
+Element: [[ChromeDriver: chrome on windows (e9edce95ff33a7ce76d05590e41a0055)] -&gt; xpath: //*[@id="authenticate_form"]/div[2]/div/button]
+Session ID: e9edce95ff33a7ce76d05590e41a0055</t>
+  </si>
+  <si>
+    <t>element click intercepted: Element &lt;button tabindex="3" type="submit" class="btn-main mx-auto btn-main mx-auto-default" ant-click-animating-without-extra-node="true"&gt;...&lt;/button&gt; is not clickable at point (514, 502). Other element would receive the click: &lt;div class="ant-spin ant-spin-spinning" aria-live="polite" aria-busy="true"&gt;...&lt;/div&gt;
+  (Session info: chrome=119.0.6045.124)
+Build info: version: '4.10.0', revision: 'c14d967899'
+System info: os.name: 'Windows 11', os.arch: 'amd64', os.version: '10.0', java.version: '17.0.7'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Command: [db4f322e996f6ee749c4e93582d0daf1, clickElement {id=D09E9D22A5E717A12CD290F7FDB9C1C4_element_14}]
+Capabilities {acceptInsecureCerts: false, browserName: chrome, browserVersion: 119.0.6045.124, chrome: {chromedriverVersion: 119.0.6045.105 (38c72552c5e..., userDataDir: C:\Users\trung\AppData\Loca...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:57542}, networkConnectionEnabled: false, pageLoadStrategy: normal, platformName: windows, proxy: Proxy(), se:cdp: ws://localhost:57542/devtoo..., se:cdpVersion: 119.0.6045.124, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
+Element: [[ChromeDriver: chrome on windows (db4f322e996f6ee749c4e93582d0daf1)] -&gt; xpath: //*[@id="authenticate_form"]/div[2]/div/button]
+Session ID: db4f322e996f6ee749c4e93582d0daf1</t>
+  </si>
+  <si>
+    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//*[@id="authenticate_form_password"]"}
+  (Session info: chrome=119.0.6045.124)
+For documentation on this error, please visit: https://www.selenium.dev/documentation/webdriver/troubleshooting/errors#no-such-element-exception
+Build info: version: '4.10.0', revision: 'c14d967899'
+System info: os.name: 'Windows 11', os.arch: 'amd64', os.version: '10.0', java.version: '17.0.7'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Command: [659dcd8a6baba27cfc1ec49a97122890, findElement {using=xpath, value=//*[@id="authenticate_form_password"]}]
+Capabilities {acceptInsecureCerts: false, browserName: chrome, browserVersion: 119.0.6045.124, chrome: {chromedriverVersion: 119.0.6045.105 (38c72552c5e..., userDataDir: C:\Users\trung\AppData\Loca...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:57602}, networkConnectionEnabled: false, pageLoadStrategy: normal, platformName: windows, proxy: Proxy(), se:cdp: ws://localhost:57602/devtoo..., se:cdpVersion: 119.0.6045.124, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
+Session ID: 659dcd8a6baba27cfc1ec49a97122890</t>
   </si>
 </sst>
 </file>
@@ -241,7 +307,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -285,6 +351,24 @@
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
@@ -765,6 +849,234 @@
       </xdr:nvPicPr>
       <xdr:blipFill>
         <a:blip r:embed="rId11"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="1104900" cy="762000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="twoCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="12" name="Picture 1" descr="Picture"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="true"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId12"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="1104900" cy="762000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="twoCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="13" name="Picture 1" descr="Picture"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="true"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId13"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="1104900" cy="762000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="twoCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="14" name="Picture 1" descr="Picture"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="true"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId14"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="1104900" cy="762000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="twoCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="15" name="Picture 1" descr="Picture"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="true"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId15"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="1104900" cy="762000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="twoCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="16" name="Picture 1" descr="Picture"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="true"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId16"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="1104900" cy="762000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="twoCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="17" name="Picture 1" descr="Picture"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="true"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId17"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1273,7 +1585,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M25"/>
+  <dimension ref="A1:M32"/>
   <sheetViews>
     <sheetView topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="I2" sqref="I2:K3"/>
@@ -2171,6 +2483,160 @@
         <v>34</v>
       </c>
     </row>
+    <row r="26" ht="60.0" customHeight="true" s="19" customFormat="true">
+      <c r="A26" s="19"/>
+      <c r="B26" s="19"/>
+      <c r="C26" s="19"/>
+      <c r="D26" s="19"/>
+      <c r="E26" s="19"/>
+      <c r="F26" s="19"/>
+      <c r="G26" t="s" s="19">
+        <v>28</v>
+      </c>
+      <c r="H26" s="19"/>
+      <c r="I26" s="19"/>
+      <c r="J26" t="s" s="19">
+        <v>32</v>
+      </c>
+      <c r="K26" t="s" s="19">
+        <v>43</v>
+      </c>
+      <c r="L26" s="19"/>
+      <c r="M26" t="s" s="19">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="27" ht="60.0" customHeight="true" s="19" customFormat="true">
+      <c r="A27" s="19"/>
+      <c r="B27" s="19"/>
+      <c r="C27" s="19"/>
+      <c r="D27" s="19"/>
+      <c r="E27" s="19"/>
+      <c r="F27" s="19"/>
+      <c r="G27" t="s" s="19">
+        <v>28</v>
+      </c>
+      <c r="H27" s="19"/>
+      <c r="I27" s="19"/>
+      <c r="J27" t="s" s="19">
+        <v>32</v>
+      </c>
+      <c r="K27" t="s" s="19">
+        <v>44</v>
+      </c>
+      <c r="L27" s="19"/>
+      <c r="M27" t="s" s="19">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="28" ht="60.0" customHeight="true" s="20" customFormat="true">
+      <c r="A28" s="20"/>
+      <c r="B28" s="20"/>
+      <c r="C28" s="20"/>
+      <c r="D28" s="20"/>
+      <c r="E28" s="20"/>
+      <c r="F28" s="20"/>
+      <c r="G28" t="s" s="20">
+        <v>28</v>
+      </c>
+      <c r="H28" s="20"/>
+      <c r="I28" s="20"/>
+      <c r="J28" t="s" s="20">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="29" ht="60.0" customHeight="true" s="21" customFormat="true">
+      <c r="A29" s="21"/>
+      <c r="B29" s="21"/>
+      <c r="C29" s="21"/>
+      <c r="D29" s="21"/>
+      <c r="E29" s="21"/>
+      <c r="F29" s="21"/>
+      <c r="G29" t="s" s="21">
+        <v>28</v>
+      </c>
+      <c r="H29" s="21"/>
+      <c r="I29" s="21"/>
+      <c r="J29" t="s" s="21">
+        <v>32</v>
+      </c>
+      <c r="K29" t="s" s="21">
+        <v>45</v>
+      </c>
+      <c r="L29" s="21"/>
+      <c r="M29" t="s" s="21">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="30" ht="60.0" customHeight="true" s="22" customFormat="true">
+      <c r="A30" s="22"/>
+      <c r="B30" s="22"/>
+      <c r="C30" s="22"/>
+      <c r="D30" s="22"/>
+      <c r="E30" s="22"/>
+      <c r="F30" s="22"/>
+      <c r="G30" t="s" s="22">
+        <v>28</v>
+      </c>
+      <c r="H30" s="22"/>
+      <c r="I30" s="22"/>
+      <c r="J30" t="s" s="22">
+        <v>32</v>
+      </c>
+      <c r="K30" t="s" s="22">
+        <v>46</v>
+      </c>
+      <c r="L30" s="22"/>
+      <c r="M30" t="s" s="22">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="31" ht="60.0" customHeight="true" s="23" customFormat="true">
+      <c r="A31" s="23"/>
+      <c r="B31" s="23"/>
+      <c r="C31" s="23"/>
+      <c r="D31" s="23"/>
+      <c r="E31" s="23"/>
+      <c r="F31" s="23"/>
+      <c r="G31" t="s" s="23">
+        <v>28</v>
+      </c>
+      <c r="H31" s="23"/>
+      <c r="I31" s="23"/>
+      <c r="J31" t="s" s="23">
+        <v>32</v>
+      </c>
+      <c r="K31" t="s" s="23">
+        <v>47</v>
+      </c>
+      <c r="L31" s="23"/>
+      <c r="M31" t="s" s="23">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="32" ht="60.0" customHeight="true" s="24" customFormat="true">
+      <c r="A32" s="24"/>
+      <c r="B32" s="24"/>
+      <c r="C32" s="24"/>
+      <c r="D32" s="24"/>
+      <c r="E32" s="24"/>
+      <c r="F32" s="24"/>
+      <c r="G32" t="s" s="24">
+        <v>28</v>
+      </c>
+      <c r="H32" s="24"/>
+      <c r="I32" s="24"/>
+      <c r="J32" t="s" s="24">
+        <v>32</v>
+      </c>
+      <c r="K32" t="s" s="24">
+        <v>48</v>
+      </c>
+      <c r="L32" s="24"/>
+      <c r="M32" t="s" s="24">
+        <v>34</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="M5" r:id="rId1" xr:uid="{00000000-0004-0000-0300-000000000000}"/>
@@ -2184,6 +2650,12 @@
     <hyperlink ref="M21" r:id="rId10"/>
     <hyperlink ref="M23" r:id="rId11"/>
     <hyperlink ref="M25" r:id="rId12"/>
+    <hyperlink ref="M26" r:id="rId13"/>
+    <hyperlink ref="M27" r:id="rId14"/>
+    <hyperlink ref="M29" r:id="rId15"/>
+    <hyperlink ref="M30" r:id="rId16"/>
+    <hyperlink ref="M31" r:id="rId17"/>
+    <hyperlink ref="M32" r:id="rId18"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId9"/>
